--- a/data/mortality.xlsx
+++ b/data/mortality.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dcsuh/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dcsuh/Documents/GitHub/temp_rsc_zoops/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{06476560-CACA-3D4D-AAA0-7BE40AC7B542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1F6AAFF-ACD3-8840-A4E7-CB660BE90945}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6860" yWindow="3020" windowWidth="27640" windowHeight="16940" xr2:uid="{50ED4C35-7FAA-AC42-B358-A78C9882720D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="16">
   <si>
     <t>ID</t>
   </si>
@@ -439,7 +439,7 @@
   <dimension ref="A1:F91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F91"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1639,10 +1639,18 @@
       <c r="B61">
         <v>10</v>
       </c>
-      <c r="C61" s="1"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="3"/>
+      <c r="C61" s="1">
+        <v>44515</v>
+      </c>
+      <c r="D61" s="2">
+        <v>64</v>
+      </c>
+      <c r="E61" s="2">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
@@ -1651,10 +1659,18 @@
       <c r="B62">
         <v>1</v>
       </c>
-      <c r="C62" s="1"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
-      <c r="F62" s="3"/>
+      <c r="C62" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
@@ -1703,10 +1719,18 @@
       <c r="B65">
         <v>4</v>
       </c>
-      <c r="C65" s="1"/>
-      <c r="D65" s="2"/>
-      <c r="E65" s="2"/>
-      <c r="F65" s="3"/>
+      <c r="C65" s="1">
+        <v>44521</v>
+      </c>
+      <c r="D65" s="2">
+        <v>87</v>
+      </c>
+      <c r="E65" s="2">
+        <v>3125</v>
+      </c>
+      <c r="F65" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
@@ -1715,10 +1739,18 @@
       <c r="B66">
         <v>5</v>
       </c>
-      <c r="C66" s="1"/>
-      <c r="D66" s="2"/>
-      <c r="E66" s="2"/>
-      <c r="F66" s="3"/>
+      <c r="C66" s="1">
+        <v>44521</v>
+      </c>
+      <c r="D66" s="2">
+        <v>89</v>
+      </c>
+      <c r="E66" s="2">
+        <v>1875</v>
+      </c>
+      <c r="F66" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
@@ -1827,9 +1859,18 @@
       <c r="B72">
         <v>1</v>
       </c>
-      <c r="D72" s="2"/>
-      <c r="E72" s="2"/>
-      <c r="F72" s="3"/>
+      <c r="C72" s="1">
+        <v>44519</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E72" s="2">
+        <v>6250</v>
+      </c>
+      <c r="F72" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
@@ -2158,10 +2199,18 @@
       <c r="B89">
         <v>8</v>
       </c>
-      <c r="C89" s="1"/>
-      <c r="D89" s="2"/>
-      <c r="E89" s="2"/>
-      <c r="F89" s="3"/>
+      <c r="C89" s="1">
+        <v>44521</v>
+      </c>
+      <c r="D89" s="2">
+        <v>94</v>
+      </c>
+      <c r="E89" s="2">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
